--- a/01-Excel/01-Activites/3/Activities/03-Stu_LineAndBar/Solved/StudentGrades_Solved.xlsx
+++ b/01-Excel/01-Activites/3/Activities/03-Stu_LineAndBar/Solved/StudentGrades_Solved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\03-Stu_LineAndBar\Solved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/03-Stu_LineAndBar/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="C8B153D8B68A13909D8A2876573FCCAD3A0A99C5" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{69CA92CA-7F95-441D-8B60-CA1C87ED0540}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1586E3B-6DAB-9E41-9AB2-60782A885A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14380" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7254,13 +7254,13 @@
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" customWidth="1"/>
-    <col min="2" max="12" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -7504,7 +7504,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -7644,7 +7644,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -7700,7 +7700,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7756,7 +7756,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -7784,7 +7784,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
